--- a/output/between_species_wheat-rice/cluster_deg_overlap_statistics_combined_best_hits.xlsx
+++ b/output/between_species_wheat-rice/cluster_deg_overlap_statistics_combined_best_hits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>wheat cluster</t>
   </si>
@@ -64,124 +64,115 @@
     <t>1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>cortex</t>
   </si>
   <si>
+    <t>metaxylem</t>
+  </si>
+  <si>
+    <t>root_hair</t>
+  </si>
+  <si>
+    <t>stele</t>
+  </si>
+  <si>
+    <t>root cap</t>
+  </si>
+  <si>
+    <t>mature epidermis</t>
+  </si>
+  <si>
+    <t>endodermis</t>
+  </si>
+  <si>
     <t>epidermis</t>
   </si>
   <si>
-    <t>root_hair</t>
-  </si>
-  <si>
-    <t>stele</t>
-  </si>
-  <si>
-    <t>root cap</t>
-  </si>
-  <si>
-    <t>endodermis</t>
-  </si>
-  <si>
-    <t>metaxylem</t>
-  </si>
-  <si>
-    <t>near root hair</t>
-  </si>
-  <si>
     <t>ORTHO905GF000160,ORTHO905GF001253,ORTHO905GF014031,ORTHO905GF017475</t>
   </si>
   <si>
+    <t>ORTHO905GF000043,ORTHO905GF000146,ORTHO905GF000303,ORTHO905GF000313,ORTHO905GF000537,ORTHO905GF000545,ORTHO905GF000596,ORTHO905GF000638,ORTHO905GF000770,ORTHO905GF000851,ORTHO905GF000969,ORTHO905GF001220,ORTHO905GF001482,ORTHO905GF002577,ORTHO905GF002782,ORTHO905GF002851,ORTHO905GF002972,ORTHO905GF003247,ORTHO905GF003358,ORTHO905GF005173,ORTHO905GF005585,ORTHO905GF006895,ORTHO905GF007503,ORTHO905GF007961,ORTHO905GF009555,ORTHO905GF009586,ORTHO905GF010010,ORTHO905GF010246,ORTHO905GF011940,ORTHO905GF013311,ORTHO905GF018623,ORTHO905GF018675</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000043,ORTHO905GF000299,ORTHO905GF000537,ORTHO905GF000968,ORTHO905GF001023,ORTHO905GF001131,ORTHO905GF001231,ORTHO905GF001411,ORTHO905GF001485,ORTHO905GF001914,ORTHO905GF002613,ORTHO905GF003377,ORTHO905GF003912,ORTHO905GF005528,ORTHO905GF005893,ORTHO905GF006245,ORTHO905GF009155,ORTHO905GF009932,ORTHO905GF011329,ORTHO905GF011554,ORTHO905GF014032,ORTHO905GF014048,ORTHO905GF014637,ORTHO905GF014733,ORTHO905GF015633,ORTHO905GF016926,ORTHO905GF017182,ORTHO905GF018757,ORTHO905GF020498</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000291,ORTHO905GF000446,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF002531,ORTHO905GF003135,ORTHO905GF017305</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000023,ORTHO905GF000027,ORTHO905GF000031,ORTHO905GF000034,ORTHO905GF000041,ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000177,ORTHO905GF000209,ORTHO905GF000249,ORTHO905GF000251,ORTHO905GF000298,ORTHO905GF001723,ORTHO905GF002086,ORTHO905GF002862,ORTHO905GF003466,ORTHO905GF005373,ORTHO905GF008461,ORTHO905GF015895,ORTHO905GF020638</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF001012,ORTHO905GF002613,ORTHO905GF003377,ORTHO905GF004829,ORTHO905GF008771,ORTHO905GF014044,ORTHO905GF014637</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000147,ORTHO905GF000291,ORTHO905GF000325,ORTHO905GF000568,ORTHO905GF001450,ORTHO905GF004032,ORTHO905GF016997,ORTHO905GF018617</t>
+  </si>
+  <si>
+    <t>ORTHO905GF000027,ORTHO905GF000214,ORTHO905GF000293,ORTHO905GF001194,ORTHO905GF001200</t>
+  </si>
+  <si>
     <t>ORTHO905GF000043,ORTHO905GF000146,ORTHO905GF000313,ORTHO905GF000545,ORTHO905GF000576,ORTHO905GF000638,ORTHO905GF000968,ORTHO905GF000996,ORTHO905GF002577,ORTHO905GF002782,ORTHO905GF002851,ORTHO905GF003310,ORTHO905GF005585,ORTHO905GF007503,ORTHO905GF007961,ORTHO905GF009555,ORTHO905GF009586,ORTHO905GF010246,ORTHO905GF018675</t>
   </si>
   <si>
-    <t>ORTHO905GF000043,ORTHO905GF000299,ORTHO905GF000537,ORTHO905GF000968,ORTHO905GF001023,ORTHO905GF001131,ORTHO905GF001231,ORTHO905GF001411,ORTHO905GF001485,ORTHO905GF001914,ORTHO905GF002613,ORTHO905GF003377,ORTHO905GF003912,ORTHO905GF005528,ORTHO905GF005893,ORTHO905GF006245,ORTHO905GF009155,ORTHO905GF009932,ORTHO905GF011329,ORTHO905GF011554,ORTHO905GF014032,ORTHO905GF014048,ORTHO905GF014637,ORTHO905GF014733,ORTHO905GF015633,ORTHO905GF016926,ORTHO905GF017182,ORTHO905GF018757,ORTHO905GF020498</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000291,ORTHO905GF000446,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF002531,ORTHO905GF003135,ORTHO905GF017305</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000023,ORTHO905GF000027,ORTHO905GF000031,ORTHO905GF000034,ORTHO905GF000041,ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000177,ORTHO905GF000209,ORTHO905GF000249,ORTHO905GF000251,ORTHO905GF000298,ORTHO905GF001723,ORTHO905GF002086,ORTHO905GF002862,ORTHO905GF003466,ORTHO905GF005373,ORTHO905GF008461,ORTHO905GF015895,ORTHO905GF020638</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000093,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF002613,ORTHO905GF003135,ORTHO905GF003377,ORTHO905GF004829,ORTHO905GF010465</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000027,ORTHO905GF000214,ORTHO905GF000293,ORTHO905GF001194,ORTHO905GF001200</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000147,ORTHO905GF000291,ORTHO905GF000325,ORTHO905GF000568,ORTHO905GF001450,ORTHO905GF004032,ORTHO905GF016997,ORTHO905GF018617</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000043,ORTHO905GF000146,ORTHO905GF000303,ORTHO905GF000313,ORTHO905GF000537,ORTHO905GF000545,ORTHO905GF000596,ORTHO905GF000638,ORTHO905GF000770,ORTHO905GF000851,ORTHO905GF000969,ORTHO905GF001220,ORTHO905GF001482,ORTHO905GF002577,ORTHO905GF002782,ORTHO905GF002851,ORTHO905GF002972,ORTHO905GF003247,ORTHO905GF003358,ORTHO905GF005173,ORTHO905GF005585,ORTHO905GF006895,ORTHO905GF007503,ORTHO905GF007961,ORTHO905GF009555,ORTHO905GF009586,ORTHO905GF010010,ORTHO905GF010246,ORTHO905GF011940,ORTHO905GF013311,ORTHO905GF018623,ORTHO905GF018675</t>
-  </si>
-  <si>
-    <t>ORTHO905GF000093,ORTHO905GF000125,ORTHO905GF000465,ORTHO905GF000545,ORTHO905GF001012,ORTHO905GF002613,ORTHO905GF003377,ORTHO905GF004829,ORTHO905GF008771,ORTHO905GF014044,ORTHO905GF014637</t>
-  </si>
-  <si>
     <t>TraesCS1A03G0554700,TraesCS1B03G0646400,TraesCS2A03G0988000,TraesCS2D03G0925700,TraesCS3A03G0974500,TraesCS3D03G0911000,TraesCS7B03G0675100,TraesCS7B03G0820900</t>
   </si>
   <si>
+    <t>TraesCS1A03G0062800,TraesCS1A03G0223500,TraesCS1A03G0313300,TraesCS1A03G0402200,TraesCS1B03G0066500,TraesCS1B03G0263100,TraesCS1B03G0325900,TraesCS1B03G0397800,TraesCS1B03G0493300,TraesCS1D03G0049400,TraesCS1D03G0186800,TraesCS1D03G0236500,TraesCS1D03G0304200,TraesCS1D03G0371000,TraesCS1D03G0913700,TraesCS2A03G0363200,TraesCS2A03G0364600,TraesCS2A03G0730800,TraesCS2A03G0734000,TraesCS2B03G0454200,TraesCS2B03G0484900,TraesCS2B03G0806600,TraesCS2B03G1012300,TraesCS2D03G0354800,TraesCS2D03G0381300,TraesCS2D03G0673900,TraesCS2D03G0676600,TraesCS2D03G0861600,TraesCS3A03G0077400,TraesCS3A03G0388700,TraesCS3A03G0987500,TraesCS3B03G0012900,TraesCS3B03G0103000,TraesCS3B03G0828300,TraesCS3B03G1137000,TraesCS3D03G0008300,TraesCS3D03G0666000,TraesCS3D03G0867400,TraesCS3D03G0921200,TraesCS4A03G0086500,TraesCS4A03G0280400,TraesCS4A03G0528300,TraesCS4A03G0686700,TraesCS4B03G0109200,TraesCS4B03G0269000,TraesCS4B03G0486500,TraesCS4B03G0706600,TraesCS4D03G0229600,TraesCS4D03G0434100,TraesCS5A03G0357200,TraesCS5A03G0388600,TraesCS5A03G0570800,TraesCS5A03G0953300,TraesCS5A03G1080200,TraesCS5A03G1115100,TraesCS5A03G1247300,TraesCS5B03G0387000,TraesCS5B03G0582100,TraesCS5B03G1001800,TraesCS5B03G1143400,TraesCS5B03G1183000,TraesCS5D03G0341700,TraesCS5D03G0377000,TraesCS5D03G0536900,TraesCS5D03G1033800,TraesCS5D03G1067600,TraesCS6A03G0080100,TraesCS6B03G0116500,TraesCS6D03G0082600,TraesCS6D03G0654300,TraesCS7A03G0413900,TraesCS7A03G0446200,TraesCS7A03G0992800,TraesCS7D03G0401600,TraesCS7D03G0430200,TraesCSU03G0019900,TraesCSU03G0020100</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0547600,TraesCS1B03G0637100,TraesCS1B03G0651500,TraesCS1B03G0767000,TraesCS1B03G1166600,TraesCS1D03G0508600,TraesCS1D03G0527600,TraesCS1D03G0538300,TraesCS1D03G0951700,TraesCS2A03G0462100,TraesCS2A03G0508300,TraesCS2A03G0753300,TraesCS2A03G0821300,TraesCS2A03G1162700,TraesCS2A03G1281500,TraesCS2B03G0582100,TraesCS2B03G0611400,TraesCS2B03G0914600,TraesCS2B03G1319000,TraesCS2B03G1468700,TraesCS2D03G0468100,TraesCS2D03G0496100,TraesCS2D03G0696800,TraesCS2D03G0769800,TraesCS2D03G1111800,TraesCS2D03G1242700,TraesCS3A03G0365400,TraesCS3A03G0635100,TraesCS3A03G0805600,TraesCS3B03G0050900,TraesCS3B03G0268700,TraesCS3B03G0439100,TraesCS3B03G0705000,TraesCS3B03G1515400,TraesCS3D03G0040200,TraesCS3D03G1192800,TraesCS4A03G0624900,TraesCS4A03G0625000,TraesCS4A03G1182000,TraesCS4B03G0178500,TraesCS4B03G0689300,TraesCS4D03G0146200,TraesCS4D03G0146400,TraesCS4D03G0146500,TraesCS4D03G0618200,TraesCS5A03G0951600,TraesCS5B03G1000500,TraesCS5D03G0906800,TraesCS6A03G0237900,TraesCS6A03G0751000,TraesCS6B03G0889800,TraesCS6B03G1029600,TraesCS6D03G0195300,TraesCS6D03G0635000,TraesCS7A03G0045400,TraesCS7A03G0484900,TraesCS7A03G0529100,TraesCS7A03G0589700,TraesCS7A03G0607400,TraesCS7A03G0816500,TraesCS7B03G0299800,TraesCS7B03G0675000,TraesCS7D03G0043000,TraesCS7D03G0468700,TraesCS7D03G0801200</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0117100,TraesCS1B03G0155900,TraesCS1B03G0906900,TraesCS1B03G0907000,TraesCS1B03G0907800,TraesCS1D03G0105400,TraesCS2A03G0749000,TraesCS2A03G1334500,TraesCS2B03G0825500,TraesCS2B03G1538800,TraesCS2D03G0692900,TraesCS3A03G0429700,TraesCS3A03G0429900,TraesCS3B03G0507800,TraesCS3B03G0508400,TraesCS3B03G0508500,TraesCS3D03G0402300,TraesCS3D03G0402600,TraesCS3D03G0402800,TraesCS3D03G1192600,TraesCS5A03G0479300,TraesCS6A03G0966200,TraesCS6B03G1181300,TraesCS6B03G1250200,TraesCS6D03G0894200</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0053300,TraesCS1A03G0502500,TraesCS1A03G0502600,TraesCS1A03G0644100,TraesCS1B03G0058000,TraesCS1B03G0574600,TraesCS1B03G0882400,TraesCS1D03G0043400,TraesCS1D03G0080800,TraesCS1D03G0485700,TraesCS1D03G0486300,TraesCS1D03G0486700,TraesCS2A03G1032100,TraesCS2A03G1032300,TraesCS2B03G0731200,TraesCS2B03G1153200,TraesCS2D03G0347500,TraesCS2D03G0971100,TraesCS2D03G0971700,TraesCS2D03G0971800,TraesCS3A03G0390700,TraesCS3A03G1018500,TraesCS3A03G1018700,TraesCS3A03G1224100,TraesCS3A03G1224300,TraesCS3B03G1165300,TraesCS3B03G1268400,TraesCS3B03G1464500,TraesCS3B03G1464600,TraesCS3D03G0382600,TraesCS3D03G0733600,TraesCS3D03G1163500,TraesCS3D03G1163600,TraesCS3D03G1163700,TraesCS4A03G0657600,TraesCS4B03G0140700,TraesCS4D03G0118100,TraesCS4D03G0431300,TraesCS4D03G0699100,TraesCS5A03G0684700,TraesCS5D03G0532900,TraesCS5D03G0992800,TraesCS6A03G0329800,TraesCS6A03G0675300,TraesCS6B03G0425000,TraesCS6D03G0205200,TraesCS7A03G0197800,TraesCS7A03G0969300,TraesCS7B03G0805100,TraesCS7D03G0180100,TraesCS7D03G0226600,TraesCS7D03G0468800,TraesCSU03G0047200,TraesCSU03G0085400</t>
+  </si>
+  <si>
+    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS2A03G0303700,TraesCS2B03G0423400,TraesCS2B03G0731200,TraesCS2B03G1083100,TraesCS2D03G0321600,TraesCS4A03G0065100,TraesCS4B03G0721600,TraesCS4B03G0721800,TraesCS4D03G0642600,TraesCS6A03G0967400,TraesCS6A03G0967600,TraesCS6B03G1184200,TraesCS6B03G1184300,TraesCS6D03G0848200,TraesCS7B03G0299800,TraesCS7B03G0801500,TraesCS7D03G0923300,TraesCSU03G0047200</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0483700,TraesCS1A03G0535100,TraesCS1B03G0625200,TraesCS1D03G0516200,TraesCS2A03G0650000,TraesCS2B03G0719400,TraesCS3A03G0744700,TraesCS3B03G0850100,TraesCS3D03G0686200,TraesCS6A03G0684200,TraesCS6B03G0794300,TraesCS6B03G0945500,TraesCS6D03G0573300,TraesCS7B03G1179800,TraesCS7D03G1266100</t>
+  </si>
+  <si>
+    <t>TraesCS1A03G0193000,TraesCS1B03G0260800,TraesCS1D03G0487600,TraesCS3A03G0209900,TraesCS3B03G1165300,TraesCS3B03G1165500,TraesCS3D03G0946200,TraesCS5D03G1163500,TraesCS7A03G0384500,TraesCS7D03G0370000</t>
+  </si>
+  <si>
     <t>TraesCS1A03G0313300,TraesCS1A03G0402200,TraesCS1A03G0793500,TraesCS1B03G0263100,TraesCS1B03G0397800,TraesCS1B03G0493300,TraesCS1B03G0911600,TraesCS1D03G0186800,TraesCS1D03G0304200,TraesCS1D03G0371000,TraesCS1D03G0645100,TraesCS1D03G0759800,TraesCS1D03G0913700,TraesCS2A03G0364600,TraesCS2A03G0730800,TraesCS2B03G0454200,TraesCS2B03G0806600,TraesCS2B03G1012300,TraesCS2D03G0354800,TraesCS2D03G0381300,TraesCS2D03G0673900,TraesCS2D03G0861600,TraesCS3A03G0388700,TraesCS3A03G0635100,TraesCS3B03G0012900,TraesCS3B03G0705000,TraesCS3B03G0828300,TraesCS3D03G0008300,TraesCS3D03G0576000,TraesCS3D03G0666000,TraesCS3D03G0867400,TraesCS5A03G0570800,TraesCS5A03G1247300,TraesCS5B03G0582100,TraesCS5D03G0536900,TraesCS7A03G0413900,TraesCS7A03G0821400,TraesCS7B03G0680100,TraesCS7D03G0401600,TraesCS7D03G0805700,TraesCSU03G0019900,TraesCSU03G0020100</t>
   </si>
   <si>
-    <t>TraesCS1A03G0547600,TraesCS1B03G0637100,TraesCS1B03G0651500,TraesCS1B03G0767000,TraesCS1B03G1166600,TraesCS1D03G0508600,TraesCS1D03G0527600,TraesCS1D03G0538300,TraesCS1D03G0951700,TraesCS2A03G0462100,TraesCS2A03G0508300,TraesCS2A03G0753300,TraesCS2A03G0821300,TraesCS2A03G1162700,TraesCS2A03G1281500,TraesCS2B03G0582100,TraesCS2B03G0611400,TraesCS2B03G0914600,TraesCS2B03G1319000,TraesCS2B03G1468700,TraesCS2D03G0468100,TraesCS2D03G0496100,TraesCS2D03G0696800,TraesCS2D03G0769800,TraesCS2D03G1111800,TraesCS2D03G1242700,TraesCS3A03G0365400,TraesCS3A03G0635100,TraesCS3A03G0805600,TraesCS3B03G0050900,TraesCS3B03G0268700,TraesCS3B03G0439100,TraesCS3B03G0705000,TraesCS3B03G1515400,TraesCS3D03G0040200,TraesCS3D03G1192800,TraesCS4A03G0624900,TraesCS4A03G0625000,TraesCS4A03G1182000,TraesCS4B03G0178500,TraesCS4B03G0689300,TraesCS4D03G0146200,TraesCS4D03G0146400,TraesCS4D03G0146500,TraesCS4D03G0618200,TraesCS5A03G0951600,TraesCS5B03G1000500,TraesCS5D03G0906800,TraesCS6A03G0237900,TraesCS6A03G0751000,TraesCS6B03G0889800,TraesCS6B03G1029600,TraesCS6D03G0195300,TraesCS6D03G0635000,TraesCS7A03G0045400,TraesCS7A03G0484900,TraesCS7A03G0529100,TraesCS7A03G0589700,TraesCS7A03G0607400,TraesCS7A03G0816500,TraesCS7B03G0299800,TraesCS7B03G0675000,TraesCS7D03G0043000,TraesCS7D03G0468700,TraesCS7D03G0801200</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0117100,TraesCS1B03G0155900,TraesCS1B03G0906900,TraesCS1B03G0907000,TraesCS1B03G0907800,TraesCS1D03G0105400,TraesCS2A03G0749000,TraesCS2A03G1334500,TraesCS2B03G0825500,TraesCS2B03G1538800,TraesCS2D03G0692900,TraesCS3A03G0429700,TraesCS3A03G0429900,TraesCS3B03G0507800,TraesCS3B03G0508400,TraesCS3B03G0508500,TraesCS3D03G0402300,TraesCS3D03G0402600,TraesCS3D03G0402800,TraesCS3D03G1192600,TraesCS5A03G0479300,TraesCS6A03G0966200,TraesCS6B03G1181300,TraesCS6B03G1250200,TraesCS6D03G0894200</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0053300,TraesCS1A03G0502500,TraesCS1A03G0502600,TraesCS1A03G0644100,TraesCS1B03G0058000,TraesCS1B03G0574600,TraesCS1B03G0882400,TraesCS1D03G0043400,TraesCS1D03G0080800,TraesCS1D03G0485700,TraesCS1D03G0486300,TraesCS1D03G0486700,TraesCS2A03G1032100,TraesCS2A03G1032300,TraesCS2B03G0731200,TraesCS2B03G1153200,TraesCS2D03G0347500,TraesCS2D03G0971100,TraesCS2D03G0971700,TraesCS2D03G0971800,TraesCS3A03G0390700,TraesCS3A03G1018500,TraesCS3A03G1018700,TraesCS3A03G1224100,TraesCS3A03G1224300,TraesCS3B03G1165300,TraesCS3B03G1268400,TraesCS3B03G1464500,TraesCS3B03G1464600,TraesCS3D03G0382600,TraesCS3D03G0733600,TraesCS3D03G1163500,TraesCS3D03G1163600,TraesCS3D03G1163700,TraesCS4A03G0657600,TraesCS4B03G0140700,TraesCS4D03G0118100,TraesCS4D03G0431300,TraesCS4D03G0699100,TraesCS5A03G0684700,TraesCS5D03G0532900,TraesCS5D03G0992800,TraesCS6A03G0329800,TraesCS6A03G0675300,TraesCS6B03G0425000,TraesCS6D03G0205200,TraesCS7A03G0197800,TraesCS7A03G0969300,TraesCS7B03G0805100,TraesCS7D03G0180100,TraesCS7D03G0226600,TraesCS7D03G0468800,TraesCSU03G0047200,TraesCSU03G0085400</t>
-  </si>
-  <si>
-    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS2A03G1334600,TraesCS2B03G1083100,TraesCS2B03G1341500,TraesCS2D03G1302200,TraesCS6A03G0967400,TraesCS6A03G0967600,TraesCS6B03G1184200,TraesCS6B03G1184300,TraesCS6D03G0848200,TraesCS7B03G0801500,TraesCS7D03G0923300,TraesCSU03G0047200</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0193000,TraesCS1B03G0260800,TraesCS1D03G0487600,TraesCS3A03G0209900,TraesCS3B03G1165300,TraesCS3B03G1165500,TraesCS3D03G0946200,TraesCS5D03G1163500,TraesCS7A03G0384500,TraesCS7D03G0370000</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0483700,TraesCS1A03G0535100,TraesCS1B03G0625200,TraesCS1D03G0516200,TraesCS2A03G0650000,TraesCS2B03G0719400,TraesCS3A03G0744700,TraesCS3B03G0850100,TraesCS3D03G0686200,TraesCS6A03G0684200,TraesCS6B03G0794300,TraesCS6B03G0945500,TraesCS6D03G0573300,TraesCS7B03G1179800,TraesCS7D03G1266100</t>
-  </si>
-  <si>
-    <t>TraesCS1A03G0062800,TraesCS1A03G0223500,TraesCS1A03G0313300,TraesCS1A03G0402200,TraesCS1B03G0066500,TraesCS1B03G0263100,TraesCS1B03G0325900,TraesCS1B03G0397800,TraesCS1B03G0493300,TraesCS1D03G0049400,TraesCS1D03G0186800,TraesCS1D03G0236500,TraesCS1D03G0304200,TraesCS1D03G0371000,TraesCS1D03G0913700,TraesCS2A03G0363200,TraesCS2A03G0364600,TraesCS2A03G0730800,TraesCS2A03G0734000,TraesCS2B03G0454200,TraesCS2B03G0484900,TraesCS2B03G0806600,TraesCS2B03G1012300,TraesCS2D03G0354800,TraesCS2D03G0381300,TraesCS2D03G0673900,TraesCS2D03G0676600,TraesCS2D03G0861600,TraesCS3A03G0077400,TraesCS3A03G0388700,TraesCS3A03G0987500,TraesCS3B03G0012900,TraesCS3B03G0103000,TraesCS3B03G0828300,TraesCS3B03G1137000,TraesCS3D03G0008300,TraesCS3D03G0666000,TraesCS3D03G0867400,TraesCS3D03G0921200,TraesCS4A03G0086500,TraesCS4A03G0280400,TraesCS4A03G0528300,TraesCS4A03G0686700,TraesCS4B03G0109200,TraesCS4B03G0269000,TraesCS4B03G0486500,TraesCS4B03G0706600,TraesCS4D03G0229600,TraesCS4D03G0434100,TraesCS5A03G0357200,TraesCS5A03G0388600,TraesCS5A03G0570800,TraesCS5A03G0953300,TraesCS5A03G1080200,TraesCS5A03G1115100,TraesCS5A03G1247300,TraesCS5B03G0387000,TraesCS5B03G0582100,TraesCS5B03G1001800,TraesCS5B03G1143400,TraesCS5B03G1183000,TraesCS5D03G0341700,TraesCS5D03G0377000,TraesCS5D03G0536900,TraesCS5D03G1033800,TraesCS5D03G1067600,TraesCS6A03G0080100,TraesCS6B03G0116500,TraesCS6D03G0082600,TraesCS6D03G0654300,TraesCS7A03G0413900,TraesCS7A03G0446200,TraesCS7A03G0992800,TraesCS7D03G0401600,TraesCS7D03G0430200,TraesCSU03G0019900,TraesCSU03G0020100</t>
-  </si>
-  <si>
-    <t>TraesCS1B03G0651500,TraesCS1B03G1166600,TraesCS1D03G0538300,TraesCS2A03G0303700,TraesCS2B03G0423400,TraesCS2B03G0731200,TraesCS2B03G1083100,TraesCS2D03G0321600,TraesCS4A03G0065100,TraesCS4B03G0721600,TraesCS4B03G0721800,TraesCS4D03G0642600,TraesCS6A03G0967400,TraesCS6A03G0967600,TraesCS6B03G1184200,TraesCS6B03G1184300,TraesCS6D03G0848200,TraesCS7B03G0299800,TraesCS7B03G0801500,TraesCS7D03G0923300,TraesCSU03G0047200</t>
-  </si>
-  <si>
     <t>Os01g0914300,Os02g0658100,Os02g0662000,Os04g0554500,Os06g0336200,Os06g0711900,Os10g0552600,Os10g0552700,Os10g0552800</t>
   </si>
   <si>
+    <t>Os01g0110200,Os01g0134900,Os01g0249200,Os01g0300200,Os01g0750300,Os01g0805900,Os01g0896200,Os01g0967200,Os01g0971400,Os02g0114200,Os02g0250400,Os02g0312600,Os02g0528100,Os02g0628200,Os02g0731400,Os02g0742200,Os03g0194300,Os03g0329700,Os03g0762400,Os03g0807500,Os04g0408600,Os04g0410600,Os05g0108600,Os05g0277500,Os05g0356700,Os05g0556400,Os06g0218600,Os06g0234200,Os06g0671900,Os07g0604400,Os07g0604800,Os07g0623600,Os07g0638500,Os09g0422500,Os10g0412700,Os10g0467800,Os11g0472600,Os12g0155200,Os12g0443500,Os12g0443600</t>
+  </si>
+  <si>
+    <t>Os01g0119000,Os01g0164075,Os01g0164300,Os01g0216400,Os01g0233000,Os01g0812100,Os02g0135500,Os02g0280200,Os02g0285300,Os02g0719000,Os03g0203700,Os03g0608000,Os04g0430600,Os04g0472200,Os04g0674800,Os05g0210100,Os05g0563550,Os06g0108600,Os06g0211300,Os06g0319133,Os07g0193000,Os07g0499500,Os07g0542900,Os08g0525000,Os08g0532700,Os09g0323700,Os10g0122600,Os10g0398100,Os10g0417600,Os10g0546100,Os10g0555700,Os10g0578200,Os11g0591100</t>
+  </si>
+  <si>
+    <t>Os01g0263300,Os01g0284500,Os03g0146100,Os04g0559700,Os04g0688100,Os05g0499300,Os07g0175600</t>
+  </si>
+  <si>
+    <t>Os01g0248000,Os01g0615100,Os01g0803200,Os01g0947000,Os01g0949750,Os01g0968300,Os02g0704900,Os02g0755900,Os03g0734100,Os03g0734200,Os04g0552000,Os05g0169100,Os05g0246300,Os06g0266400,Os06g0549900,Os07g0106200,Os07g0128800,Os07g0442900,Os08g0260600,Os08g0524400,Os09g0425900,Os10g0527400,Os10g0531400,Os11g0587600,Os12g0437800</t>
+  </si>
+  <si>
+    <t>Os01g0284500,Os01g0946700,Os01g0947000,Os03g0155900,Os03g0368000,Os03g0368300,Os03g0428700,Os04g0559700,Os07g0106200,Os07g0193000,Os07g0559700,Os07g0639000,Os10g0417600,Os10g0439100,Os10g0439200,Os10g0555700</t>
+  </si>
+  <si>
+    <t>Os01g0263000,Os01g0543100,Os01g0763900,Os02g0519700,Os02g0669000,Os03g0327600,Os04g0423800,Os07g0119400,Os10g0510000,Os10g0536700,Os11g0163100</t>
+  </si>
+  <si>
+    <t>Os01g0168800,Os01g0764000,Os03g0300400,Os03g0845000,Os10g0529300</t>
+  </si>
+  <si>
     <t>Os01g0106400,Os01g0110200,Os01g0249200,Os01g0282800,Os01g0668100,Os01g0750300,Os01g0805900,Os01g0896200,Os02g0628200,Os03g0387800,Os03g0416200,Os04g0408600,Os05g0413200,Os05g0501300,Os05g0556400,Os06g0156600,Os06g0218600,Os07g0636800,Os08g0157500,Os09g0422500,Os10g0467800</t>
-  </si>
-  <si>
-    <t>Os01g0119000,Os01g0164075,Os01g0164300,Os01g0216400,Os01g0233000,Os01g0812100,Os02g0135500,Os02g0280200,Os02g0285300,Os02g0719000,Os03g0203700,Os03g0608000,Os04g0430600,Os04g0472200,Os04g0674800,Os05g0210100,Os05g0563550,Os06g0108600,Os06g0211300,Os06g0319133,Os07g0193000,Os07g0499500,Os07g0542900,Os08g0525000,Os08g0532700,Os09g0323700,Os10g0122600,Os10g0398100,Os10g0417600,Os10g0546100,Os10g0555700,Os10g0578200,Os11g0591100</t>
-  </si>
-  <si>
-    <t>Os01g0263300,Os01g0284500,Os03g0146100,Os04g0559700,Os04g0688100,Os05g0499300,Os07g0175600</t>
-  </si>
-  <si>
-    <t>Os01g0248000,Os01g0615100,Os01g0803200,Os01g0947000,Os01g0949750,Os01g0968300,Os02g0704900,Os02g0755900,Os03g0734100,Os03g0734200,Os04g0552000,Os05g0169100,Os05g0246300,Os06g0266400,Os06g0549900,Os07g0106200,Os07g0128800,Os07g0442900,Os08g0260600,Os08g0524400,Os09g0425900,Os10g0527400,Os10g0531400,Os11g0587600,Os12g0437800</t>
-  </si>
-  <si>
-    <t>Os01g0284500,Os01g0946700,Os03g0368000,Os04g0559700,Os04g0652700,Os04g0688100,Os10g0417600,Os10g0555600</t>
-  </si>
-  <si>
-    <t>Os01g0168800,Os01g0764000,Os03g0300400,Os03g0845000,Os10g0529300</t>
-  </si>
-  <si>
-    <t>Os01g0263000,Os01g0543100,Os01g0763900,Os02g0519700,Os02g0669000,Os03g0327600,Os04g0423800,Os07g0119400,Os10g0510000,Os10g0536700,Os11g0163100</t>
-  </si>
-  <si>
-    <t>Os01g0110200,Os01g0134900,Os01g0249200,Os01g0300200,Os01g0750300,Os01g0805900,Os01g0896200,Os01g0967200,Os01g0971400,Os02g0114200,Os02g0250400,Os02g0312600,Os02g0528100,Os02g0628200,Os02g0731400,Os02g0742200,Os03g0194300,Os03g0329700,Os03g0762400,Os03g0807500,Os04g0408600,Os04g0410600,Os05g0108600,Os05g0277500,Os05g0356700,Os05g0556400,Os06g0218600,Os06g0234200,Os06g0671900,Os07g0604400,Os07g0604800,Os07g0623600,Os07g0638500,Os09g0422500,Os10g0412700,Os10g0467800,Os11g0472600,Os12g0155200,Os12g0443500,Os12g0443600</t>
-  </si>
-  <si>
-    <t>Os01g0284500,Os01g0946700,Os01g0947000,Os03g0155900,Os03g0368000,Os03g0368300,Os03g0428700,Os04g0559700,Os07g0106200,Os07g0193000,Os07g0559700,Os07g0639000,Os10g0417600,Os10g0439100,Os10g0439200,Os10g0555700</t>
   </si>
 </sst>
 </file>
@@ -539,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,13 +579,13 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>14.81</v>
+        <v>13.7</v>
       </c>
       <c r="E2">
         <v>0.0009</v>
       </c>
       <c r="F2">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -603,10 +594,10 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -617,16 +608,16 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>5.04</v>
+        <v>4.3</v>
       </c>
       <c r="E3">
         <v>0.0009</v>
       </c>
       <c r="F3">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -635,10 +626,10 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -652,13 +643,13 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="E4">
         <v>0.0009</v>
       </c>
       <c r="F4">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -667,10 +658,10 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -684,13 +675,13 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="F5">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -699,10 +690,10 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -716,13 +707,13 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="E6">
         <v>0.0009</v>
       </c>
       <c r="F6">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -731,10 +722,10 @@
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -742,19 +733,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="E7">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="F7">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -763,10 +754,10 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -774,19 +765,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>4.86</v>
+        <v>2.72</v>
       </c>
       <c r="E8">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F8">
-        <v>0.02488888888888889</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -795,10 +786,10 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -806,19 +797,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>2.77</v>
+        <v>5.07</v>
       </c>
       <c r="E9">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F9">
-        <v>0.0336</v>
+        <v>0.02488888888888889</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -827,10 +818,10 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -838,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>4.34</v>
+        <v>3.92</v>
       </c>
       <c r="E10">
         <v>0.0009</v>
       </c>
       <c r="F10">
-        <v>0.014</v>
+        <v>0.01244444444444444</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -859,42 +850,10 @@
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>2.95</v>
-      </c>
-      <c r="E11">
-        <v>0.0009</v>
-      </c>
-      <c r="F11">
-        <v>0.014</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
